--- a/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
+++ b/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
@@ -111,9 +111,6 @@
     <t>date('d.m.Y',strtotime($t1['id_date_max']))</t>
   </si>
   <si>
-    <t>"Частичный расчет ".date('d.m.Y',strtotime($t1['id_date_max'])).' '.number_format($t1['summa_pay'], 2, ',', ' ')</t>
-  </si>
-  <si>
     <t>t2</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Расчет начисления пени</t>
+  </si>
+  <si>
+    <t>"Частичный расчет ".date('d.m.Y',strtotime($t1['dateOpiration_'])).' '.number_format($t1['summa_pay'], 2, ',', ' ')</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -230,8 +230,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,9 +389,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -402,15 +399,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,15 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +434,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -765,7 +765,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -784,14 +784,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="20"/>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -810,52 +810,52 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="15.75">
-      <c r="A6" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="A6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" customHeight="1">
@@ -875,30 +875,30 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -908,10 +908,10 @@
       <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="23"/>
       <c r="O9" s="6" t="s">
         <v>4</v>
@@ -921,43 +921,43 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="11.25" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="23"/>
       <c r="K10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:20" ht="48.75" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -992,7 +992,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>5</v>
@@ -1010,16 +1010,16 @@
       <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="A13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
       <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>4</v>
@@ -1040,17 +1040,17 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="27" t="s">
-        <v>35</v>
+      <c r="A14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="I14" s="25"/>
       <c r="K14" s="9" t="s">
@@ -1082,17 +1082,17 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>9</v>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T15" s="8">
         <v>0</v>

--- a/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
+++ b/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Block</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Итого пени за период</t>
   </si>
   <si>
-    <t>Итого пени</t>
-  </si>
-  <si>
     <t>$SUM_t2['SumPenalty']</t>
   </si>
   <si>
@@ -145,6 +142,24 @@
   </si>
   <si>
     <t>"Частичный расчет ".date('d.m.Y',strtotime($t1['dateOpiration_'])).' '.number_format($t1['summa_pay'], 2, ',', ' ')</t>
+  </si>
+  <si>
+    <t>Информация о перерасчете</t>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>Процентная ставка: по периодам действия ставки рефинансирования</t>
+  </si>
+  <si>
+    <t>"с ".$this-&gt;H['dateStart']</t>
+  </si>
+  <si>
+    <t>"по ".$this-&gt;H['dateEnd']</t>
+  </si>
+  <si>
+    <t>Сумма пеней по всем задолженностям:</t>
   </si>
 </sst>
 </file>
@@ -218,12 +233,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -236,8 +245,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -357,12 +378,6 @@
     <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -376,9 +391,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,12 +398,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -401,10 +426,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,35 +470,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -765,7 +797,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -776,7 +808,7 @@
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" style="19" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="5"/>
     <col min="14" max="14" width="53" style="5" customWidth="1"/>
     <col min="15" max="17" width="9.140625" style="5"/>
@@ -784,15 +816,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="20"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
@@ -810,95 +842,135 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="20"/>
+      <c r="A2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
-      <c r="A6" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="20"/>
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="I6" s="26"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.95" customHeight="1">
+      <c r="A8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.95" customHeight="1">
+      <c r="A9" s="43"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -908,11 +980,11 @@
       <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="23"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="20"/>
       <c r="O9" s="6" t="s">
         <v>4</v>
       </c>
@@ -920,16 +992,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="11.25" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="23"/>
+    <row r="10" spans="1:20" ht="4.5" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="20"/>
       <c r="K10" s="7" t="s">
         <v>5</v>
       </c>
@@ -942,21 +1014,21 @@
       <c r="N10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="38.1" customHeight="1">
+      <c r="A11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="26" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="1"/>
@@ -966,32 +1038,32 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1">
+    <row r="12" spans="1:20" ht="18.95" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -1006,20 +1078,20 @@
       <c r="N12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" ht="12" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,19 +1112,19 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="22"/>
       <c r="K14" s="9" t="s">
         <v>9</v>
       </c>
@@ -1082,17 +1154,17 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>9</v>
@@ -1123,14 +1195,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:E9"/>

--- a/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
+++ b/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Block</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Сумма пеней по всем задолженностям:</t>
+  </si>
+  <si>
+    <t>"Представитель ".$this-&gt;H['name_organization']." (по доверенности)  __________________".$this-&gt;H['bookkeeper_KVPL']</t>
+  </si>
+  <si>
+    <t>Block3</t>
   </si>
 </sst>
 </file>
@@ -794,10 +800,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1192,6 +1198,33 @@
       </c>
       <c r="T15" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="O20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
+++ b/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Block</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Block3</t>
+  </si>
+  <si>
+    <t>"Адрес - ".$this-&gt;H['TXT_headSmallTitle']</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -445,10 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -803,7 +802,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -848,7 +847,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="37"/>
@@ -861,7 +860,9 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -880,16 +881,9 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I4" s="26"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -953,30 +947,30 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="43" t="s">
         <v>18</v>
       </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:20" ht="18.95" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -986,10 +980,10 @@
       <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="20"/>
       <c r="O9" s="6" t="s">
         <v>4</v>
@@ -999,14 +993,14 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="4.5" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="20"/>
       <c r="K10" s="7" t="s">
         <v>5</v>
@@ -1024,16 +1018,16 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:20" ht="38.1" customHeight="1">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="23" t="s">
         <v>33</v>
       </c>
@@ -1088,16 +1082,16 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:20" ht="12" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="K13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,12 +1222,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>

--- a/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
+++ b/Reports/Tribunal/PenaltyCalculate/PenaltyCalculate.xlsx
@@ -162,13 +162,13 @@
     <t>Сумма пеней по всем задолженностям:</t>
   </si>
   <si>
-    <t>"Представитель ".$this-&gt;H['name_organization']." (по доверенности)  __________________".$this-&gt;H['bookkeeper_KVPL']</t>
-  </si>
-  <si>
     <t>Block3</t>
   </si>
   <si>
     <t>"Адрес - ".$this-&gt;H['TXT_headSmallTitle']</t>
+  </si>
+  <si>
+    <t>"Представитель ".$this-&gt;H['name_organization']." (по доверенности)  __________________".$this-&gt;H['Signatory']</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -882,7 +882,7 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="1"/>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="4">
         <v>5</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
